--- a/data/pca/factorExposure/factorExposure_2018-08-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-08-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.03689586106878701</v>
+        <v>-0.03276787450939014</v>
       </c>
       <c r="C2">
-        <v>0.04514396981761423</v>
+        <v>0.01379156405861068</v>
       </c>
       <c r="D2">
-        <v>-0.04059037629078607</v>
+        <v>-0.01124456859981291</v>
       </c>
       <c r="E2">
-        <v>0.04831487844023588</v>
+        <v>0.01562229653818915</v>
       </c>
       <c r="F2">
-        <v>-0.1446065005274344</v>
+        <v>0.02031959181981171</v>
       </c>
       <c r="G2">
-        <v>-0.04714422537304895</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.08428436283021959</v>
+      </c>
+      <c r="H2">
+        <v>0.01850152757069047</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.1210867259515541</v>
+        <v>-0.08320581446535645</v>
       </c>
       <c r="C3">
-        <v>0.007618524272344807</v>
+        <v>-0.01526101583444198</v>
       </c>
       <c r="D3">
-        <v>-0.04411856074737169</v>
+        <v>-0.01605964958696161</v>
       </c>
       <c r="E3">
-        <v>0.08917722805308108</v>
+        <v>0.008636012876492278</v>
       </c>
       <c r="F3">
-        <v>-0.3966225166658151</v>
+        <v>-0.01588003091633674</v>
       </c>
       <c r="G3">
-        <v>-0.1402654154937845</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.2737415777321427</v>
+      </c>
+      <c r="H3">
+        <v>0.03636377978805926</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05284135435944249</v>
+        <v>-0.05029580998633741</v>
       </c>
       <c r="C4">
-        <v>0.038395760858021</v>
+        <v>0.00238102788085842</v>
       </c>
       <c r="D4">
-        <v>-0.000118888401875475</v>
+        <v>-0.03035281619312285</v>
       </c>
       <c r="E4">
-        <v>0.06504980624463946</v>
+        <v>-0.02099240740293172</v>
       </c>
       <c r="F4">
-        <v>-0.07264024707268667</v>
+        <v>0.05599858968078703</v>
       </c>
       <c r="G4">
-        <v>-0.04504353092187738</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.05343051539877852</v>
+      </c>
+      <c r="H4">
+        <v>0.02638308369872142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01276783979531979</v>
+        <v>-0.03091801757270293</v>
       </c>
       <c r="C6">
-        <v>-0.001966122339991099</v>
+        <v>0.002428324258871949</v>
       </c>
       <c r="D6">
-        <v>-0.01579634815626353</v>
+        <v>-0.0393197656806895</v>
       </c>
       <c r="E6">
-        <v>0.02180813153572569</v>
+        <v>-0.005551247791567343</v>
       </c>
       <c r="F6">
-        <v>-0.01225132274032625</v>
+        <v>0.03536436214479863</v>
       </c>
       <c r="G6">
-        <v>0.003480356293223369</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.01639653300919935</v>
+      </c>
+      <c r="H6">
+        <v>0.05283785716055373</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02716984817289311</v>
+        <v>-0.02131977481428481</v>
       </c>
       <c r="C7">
-        <v>0.01681545358889855</v>
+        <v>0.002351567792627202</v>
       </c>
       <c r="D7">
-        <v>-0.032328377277979</v>
+        <v>-0.0174721741488948</v>
       </c>
       <c r="E7">
-        <v>0.0376334179610764</v>
+        <v>-0.0354643238481234</v>
       </c>
       <c r="F7">
-        <v>-0.06389486950527894</v>
+        <v>0.02016101277342344</v>
       </c>
       <c r="G7">
-        <v>-0.05753351180703106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.04059910915323898</v>
+      </c>
+      <c r="H7">
+        <v>0.01526321939104544</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01552134350606216</v>
+        <v>-0.006270823729309496</v>
       </c>
       <c r="C8">
-        <v>0.01605501504324639</v>
+        <v>-0.002698108178723079</v>
       </c>
       <c r="D8">
-        <v>-0.0007042768884523502</v>
+        <v>-0.008010261457844364</v>
       </c>
       <c r="E8">
-        <v>0.07111187996316488</v>
+        <v>-0.01119385369021323</v>
       </c>
       <c r="F8">
-        <v>-0.08891529642594682</v>
+        <v>0.02711430032999208</v>
       </c>
       <c r="G8">
-        <v>-0.06534915883977219</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.05784729840107825</v>
+      </c>
+      <c r="H8">
+        <v>0.006151347058943552</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04304329409584761</v>
+        <v>-0.04130641368417413</v>
       </c>
       <c r="C9">
-        <v>0.0300322199409101</v>
+        <v>-0.001611367496246044</v>
       </c>
       <c r="D9">
-        <v>0.01012421549837177</v>
+        <v>-0.0254778737383492</v>
       </c>
       <c r="E9">
-        <v>0.06906975067218188</v>
+        <v>-0.01804678233226492</v>
       </c>
       <c r="F9">
-        <v>-0.06921599029359386</v>
+        <v>0.03428674226925187</v>
       </c>
       <c r="G9">
-        <v>-0.0472198587585582</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.06335016583602375</v>
+      </c>
+      <c r="H9">
+        <v>0.02492968118065778</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.04990442829563316</v>
+        <v>-0.09581933897513514</v>
       </c>
       <c r="C10">
-        <v>0.04266770117411994</v>
+        <v>-0.0329349925439095</v>
       </c>
       <c r="D10">
-        <v>0.01840370308105017</v>
+        <v>0.1470412760416635</v>
       </c>
       <c r="E10">
-        <v>-0.1141199822532547</v>
+        <v>0.02018180283864631</v>
       </c>
       <c r="F10">
-        <v>-0.07743721334313476</v>
+        <v>-0.06940834454093314</v>
       </c>
       <c r="G10">
-        <v>0.04585150250654697</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02360249630073819</v>
+      </c>
+      <c r="H10">
+        <v>0.003437700958241759</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03420178488941959</v>
+        <v>-0.02354348216841708</v>
       </c>
       <c r="C11">
-        <v>0.01208845642879435</v>
+        <v>-0.008868417525610251</v>
       </c>
       <c r="D11">
-        <v>-0.01891888051262556</v>
+        <v>-0.03303272011870949</v>
       </c>
       <c r="E11">
-        <v>0.03702018587334304</v>
+        <v>0.003515820248486357</v>
       </c>
       <c r="F11">
-        <v>-0.03460224277261063</v>
+        <v>0.0205644750079632</v>
       </c>
       <c r="G11">
-        <v>-0.02281737798344131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.0370339881006324</v>
+      </c>
+      <c r="H11">
+        <v>0.02706967859161014</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04176263999556802</v>
+        <v>-0.0323519709397281</v>
       </c>
       <c r="C12">
-        <v>0.01343456474325728</v>
+        <v>-0.007438209802383152</v>
       </c>
       <c r="D12">
-        <v>-0.004553929254980204</v>
+        <v>-0.03237860156404789</v>
       </c>
       <c r="E12">
-        <v>0.04437607309289111</v>
+        <v>-0.008002427558505238</v>
       </c>
       <c r="F12">
-        <v>-0.01605710069576593</v>
+        <v>0.02409602439788195</v>
       </c>
       <c r="G12">
-        <v>-0.018654069480387</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.01425634044437308</v>
+      </c>
+      <c r="H12">
+        <v>0.01389233955610486</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01933640072975613</v>
+        <v>-0.02747319637881375</v>
       </c>
       <c r="C13">
-        <v>0.0236336546152139</v>
+        <v>0.01250107323711637</v>
       </c>
       <c r="D13">
-        <v>-0.03580385830484354</v>
+        <v>-0.00184130380150491</v>
       </c>
       <c r="E13">
-        <v>0.02023449794763596</v>
+        <v>0.01775596260570981</v>
       </c>
       <c r="F13">
-        <v>-0.08989319040718846</v>
+        <v>0.01880758268426936</v>
       </c>
       <c r="G13">
-        <v>-0.03124701544562218</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.07130778150304466</v>
+      </c>
+      <c r="H13">
+        <v>0.02486674010760992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01016980457490231</v>
+        <v>-0.01609831464778185</v>
       </c>
       <c r="C14">
-        <v>0.01781429335514188</v>
+        <v>7.409307945895481e-05</v>
       </c>
       <c r="D14">
-        <v>-0.006689478078695171</v>
+        <v>-0.002681588907714969</v>
       </c>
       <c r="E14">
-        <v>0.04149781367401408</v>
+        <v>-0.008245026190211953</v>
       </c>
       <c r="F14">
-        <v>-0.06528226332374543</v>
+        <v>0.02307439463991461</v>
       </c>
       <c r="G14">
-        <v>-0.06362541264221157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.04729289766962665</v>
+      </c>
+      <c r="H14">
+        <v>-0.01877389992025606</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02595851525386552</v>
+        <v>-0.02495311302917976</v>
       </c>
       <c r="C16">
-        <v>0.01383468001647451</v>
+        <v>-0.009492652569600671</v>
       </c>
       <c r="D16">
-        <v>-0.01511597046130112</v>
+        <v>-0.02799425934951882</v>
       </c>
       <c r="E16">
-        <v>0.03430212436584002</v>
+        <v>-0.001213650951190001</v>
       </c>
       <c r="F16">
-        <v>-0.03819969118332207</v>
+        <v>0.02243864321356241</v>
       </c>
       <c r="G16">
-        <v>-0.02507677970866565</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.03290849519388014</v>
+      </c>
+      <c r="H16">
+        <v>0.02117677899398554</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.0387152016857244</v>
+        <v>-0.03548985255867001</v>
       </c>
       <c r="C19">
-        <v>0.01411617522498243</v>
+        <v>-0.001387040522785682</v>
       </c>
       <c r="D19">
-        <v>-0.01958696333153393</v>
+        <v>-0.01059089147508999</v>
       </c>
       <c r="E19">
-        <v>0.05383519082969155</v>
+        <v>0.001245079974427648</v>
       </c>
       <c r="F19">
-        <v>-0.1023130366582933</v>
+        <v>0.02913083999432853</v>
       </c>
       <c r="G19">
-        <v>-0.04277382404885757</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.07544603410698128</v>
+      </c>
+      <c r="H19">
+        <v>0.0359054144256423</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.0004096589783995054</v>
+        <v>-0.01072668662734347</v>
       </c>
       <c r="C20">
-        <v>0.02269746790755823</v>
+        <v>0.005899709643313245</v>
       </c>
       <c r="D20">
-        <v>-0.01102938846023973</v>
+        <v>-0.001195156512829296</v>
       </c>
       <c r="E20">
-        <v>0.03298229765763104</v>
+        <v>-0.0001816528783221295</v>
       </c>
       <c r="F20">
-        <v>-0.06399423271061394</v>
+        <v>0.01592820666041321</v>
       </c>
       <c r="G20">
-        <v>-0.06571140026088923</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.05307750708216737</v>
+      </c>
+      <c r="H20">
+        <v>-0.01067163401910938</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.0008225184544508516</v>
+        <v>-0.02355776144027331</v>
       </c>
       <c r="C21">
-        <v>-0.002302799500783385</v>
+        <v>0.005027087167376551</v>
       </c>
       <c r="D21">
-        <v>-0.006965044686557877</v>
+        <v>-0.002750005070108053</v>
       </c>
       <c r="E21">
-        <v>0.03963894599478151</v>
+        <v>-0.01135543633173344</v>
       </c>
       <c r="F21">
-        <v>-0.06530927598881991</v>
+        <v>0.0082251754093579</v>
       </c>
       <c r="G21">
-        <v>-0.02625916191330447</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.05792657332971653</v>
+      </c>
+      <c r="H21">
+        <v>0.008537374764931018</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.0303480671821959</v>
+        <v>-0.0230513823239577</v>
       </c>
       <c r="C24">
-        <v>0.01495047812848215</v>
+        <v>-0.003975563391283247</v>
       </c>
       <c r="D24">
-        <v>-0.01146243124205986</v>
+        <v>-0.02904231276341405</v>
       </c>
       <c r="E24">
-        <v>0.02645319224091637</v>
+        <v>-0.001399079331507817</v>
       </c>
       <c r="F24">
-        <v>-0.03515154965465173</v>
+        <v>0.01819945324815894</v>
       </c>
       <c r="G24">
-        <v>-0.01633838543726103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.03104093829149444</v>
+      </c>
+      <c r="H24">
+        <v>0.02581584470610941</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03182574909001594</v>
+        <v>-0.0340864472679387</v>
       </c>
       <c r="C25">
-        <v>0.009987872220531031</v>
+        <v>-0.002641854273876848</v>
       </c>
       <c r="D25">
-        <v>-0.01045127863333454</v>
+        <v>-0.02545529090344786</v>
       </c>
       <c r="E25">
-        <v>0.03973252225344304</v>
+        <v>-0.00190802204693012</v>
       </c>
       <c r="F25">
-        <v>-0.03274352308816315</v>
+        <v>0.02289763073348744</v>
       </c>
       <c r="G25">
-        <v>-0.006474847665923147</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.03507000174793027</v>
+      </c>
+      <c r="H25">
+        <v>0.02878154941428133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01903444064916644</v>
+        <v>-0.01955889466423869</v>
       </c>
       <c r="C26">
-        <v>-0.003748277846559915</v>
+        <v>0.01724284881049377</v>
       </c>
       <c r="D26">
-        <v>-0.03777505060923845</v>
+        <v>-0.004211501651219054</v>
       </c>
       <c r="E26">
-        <v>0.04010298170653067</v>
+        <v>0.00679090177859886</v>
       </c>
       <c r="F26">
-        <v>-0.05730837534274157</v>
+        <v>0.003869289971293521</v>
       </c>
       <c r="G26">
-        <v>-0.03279150488709957</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.03919385769757634</v>
+      </c>
+      <c r="H26">
+        <v>-0.003574421991171147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.07394462289531802</v>
+        <v>-0.03106866344530427</v>
       </c>
       <c r="C27">
-        <v>0.05216460084031891</v>
+        <v>-0.01244214780631105</v>
       </c>
       <c r="D27">
-        <v>-0.002167753088800991</v>
+        <v>-0.01094849582702403</v>
       </c>
       <c r="E27">
-        <v>0.05401422136500542</v>
+        <v>-0.005422793329730134</v>
       </c>
       <c r="F27">
-        <v>-0.05490695940234302</v>
+        <v>0.02592909831587282</v>
       </c>
       <c r="G27">
-        <v>-0.05473482818612721</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.028457105037747</v>
+      </c>
+      <c r="H27">
+        <v>-0.001966413024978023</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.07501282163449706</v>
+        <v>-0.1457877981216629</v>
       </c>
       <c r="C28">
-        <v>0.06117148511884957</v>
+        <v>-0.03654797637206136</v>
       </c>
       <c r="D28">
-        <v>0.04009697094126494</v>
+        <v>0.2196972979007319</v>
       </c>
       <c r="E28">
-        <v>-0.1744449693582927</v>
+        <v>0.02426446239545138</v>
       </c>
       <c r="F28">
-        <v>-0.1000098355553335</v>
+        <v>-0.09339078558963121</v>
       </c>
       <c r="G28">
-        <v>0.02378270267841252</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.009258342710893286</v>
+      </c>
+      <c r="H28">
+        <v>-0.01258373762725526</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01922740081468641</v>
+        <v>-0.02180726786493793</v>
       </c>
       <c r="C29">
-        <v>0.02000342226731658</v>
+        <v>-0.002387072025316977</v>
       </c>
       <c r="D29">
-        <v>0.0005543748724464056</v>
+        <v>-0.004243983773735437</v>
       </c>
       <c r="E29">
-        <v>0.0586834498218038</v>
+        <v>-0.0101106161198074</v>
       </c>
       <c r="F29">
-        <v>-0.04871683849851858</v>
+        <v>0.02487504802338335</v>
       </c>
       <c r="G29">
-        <v>-0.06509244886935074</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.03974915413311433</v>
+      </c>
+      <c r="H29">
+        <v>-0.02010163158404599</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.0880361200753374</v>
+        <v>-0.05664035385312298</v>
       </c>
       <c r="C30">
-        <v>0.05474129305217641</v>
+        <v>0.002202311129307931</v>
       </c>
       <c r="D30">
-        <v>-0.04035340543683173</v>
+        <v>-0.05737523241890646</v>
       </c>
       <c r="E30">
-        <v>0.08210723739371838</v>
+        <v>0.03429288758816791</v>
       </c>
       <c r="F30">
-        <v>-0.05235266298149526</v>
+        <v>0.06874056690860504</v>
       </c>
       <c r="G30">
-        <v>-0.04438134789175101</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.068326395625545</v>
+      </c>
+      <c r="H30">
+        <v>0.0355588692686462</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06147474082634354</v>
+        <v>-0.05546294193912604</v>
       </c>
       <c r="C31">
-        <v>0.0156963199851389</v>
+        <v>-0.01555787420917394</v>
       </c>
       <c r="D31">
-        <v>-0.05114822840265236</v>
+        <v>-0.02602037636316966</v>
       </c>
       <c r="E31">
-        <v>0.03398092608496359</v>
+        <v>0.008848807072733101</v>
       </c>
       <c r="F31">
-        <v>-0.03827265462172321</v>
+        <v>0.02000869570609889</v>
       </c>
       <c r="G31">
-        <v>-0.07907298960403122</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.02423474180068976</v>
+      </c>
+      <c r="H31">
+        <v>-0.01615203946879024</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02138249630032534</v>
+        <v>-0.01596034825301414</v>
       </c>
       <c r="C32">
-        <v>0.0296162304787786</v>
+        <v>-0.01685804292832345</v>
       </c>
       <c r="D32">
-        <v>-0.006237177588994446</v>
+        <v>0.007686572599946831</v>
       </c>
       <c r="E32">
-        <v>0.07043466840509228</v>
+        <v>-0.01684581505762637</v>
       </c>
       <c r="F32">
-        <v>-0.06240709327360223</v>
+        <v>0.04643810286957233</v>
       </c>
       <c r="G32">
-        <v>-0.04873330384958567</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.05825291028809482</v>
+      </c>
+      <c r="H32">
+        <v>0.04135510999735873</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.05349105198031035</v>
+        <v>-0.04060172419513259</v>
       </c>
       <c r="C33">
-        <v>0.001883547172732372</v>
+        <v>-0.001594758084644638</v>
       </c>
       <c r="D33">
-        <v>-0.05033127616957406</v>
+        <v>-0.03039389715514969</v>
       </c>
       <c r="E33">
-        <v>0.07254769908014358</v>
+        <v>0.02360413089711089</v>
       </c>
       <c r="F33">
-        <v>-0.09204310829145339</v>
+        <v>0.01209984754312843</v>
       </c>
       <c r="G33">
-        <v>-0.05045157247293454</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.06601065800447883</v>
+      </c>
+      <c r="H33">
+        <v>0.01513466496464476</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03204059801425401</v>
+        <v>-0.02721862642530728</v>
       </c>
       <c r="C34">
-        <v>0.01570930471737093</v>
+        <v>-0.01720651749471755</v>
       </c>
       <c r="D34">
-        <v>-0.01488264072724333</v>
+        <v>-0.03002008013970857</v>
       </c>
       <c r="E34">
-        <v>0.0440329095867827</v>
+        <v>-0.006580421176767212</v>
       </c>
       <c r="F34">
-        <v>-0.03756319991558581</v>
+        <v>0.02313740416731251</v>
       </c>
       <c r="G34">
-        <v>-0.01645240856759073</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.0287114379079813</v>
+      </c>
+      <c r="H34">
+        <v>0.02436572256972448</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01322391335077874</v>
+        <v>-0.0214728621140744</v>
       </c>
       <c r="C36">
-        <v>0.01014058349370328</v>
+        <v>0.003015893796988453</v>
       </c>
       <c r="D36">
-        <v>-0.004209998417447053</v>
+        <v>0.002436459465876452</v>
       </c>
       <c r="E36">
-        <v>0.02898785280041361</v>
+        <v>-0.00180831030255977</v>
       </c>
       <c r="F36">
-        <v>-0.02430486401821551</v>
+        <v>0.008136033035601309</v>
       </c>
       <c r="G36">
-        <v>-0.03608676800750437</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.02129790136141646</v>
+      </c>
+      <c r="H36">
+        <v>-0.00426277018331545</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.001020902865090007</v>
+        <v>-0.02198441140163826</v>
       </c>
       <c r="C38">
-        <v>-0.006518939277042575</v>
+        <v>-0.01687960217450836</v>
       </c>
       <c r="D38">
-        <v>0.01352925253746826</v>
+        <v>0.001766206440462343</v>
       </c>
       <c r="E38">
-        <v>-0.003193947258787132</v>
+        <v>-0.004117052539409683</v>
       </c>
       <c r="F38">
-        <v>-0.01879987304042637</v>
+        <v>0.009217192989448222</v>
       </c>
       <c r="G38">
-        <v>0.01166198720776756</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.03035388816284525</v>
+      </c>
+      <c r="H38">
+        <v>0.02072925106018119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03888192084314823</v>
+        <v>-0.02293029086120901</v>
       </c>
       <c r="C39">
-        <v>0.02071311444292341</v>
+        <v>-0.001328712469291429</v>
       </c>
       <c r="D39">
-        <v>-0.03490543194772251</v>
+        <v>-0.06838729857303136</v>
       </c>
       <c r="E39">
-        <v>0.0474174509432241</v>
+        <v>0.001302019795410657</v>
       </c>
       <c r="F39">
-        <v>-0.04586456989955354</v>
+        <v>0.0393335577249932</v>
       </c>
       <c r="G39">
-        <v>-0.02013478618804139</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.05739524616565953</v>
+      </c>
+      <c r="H39">
+        <v>0.05039712297813027</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.02960275583081265</v>
+        <v>-0.03519962525345755</v>
       </c>
       <c r="C40">
-        <v>0.04362571949068585</v>
+        <v>-0.002993855615780288</v>
       </c>
       <c r="D40">
-        <v>-0.05918262572038707</v>
+        <v>-0.01332732452970428</v>
       </c>
       <c r="E40">
-        <v>0.03600997519738085</v>
+        <v>0.02176810735140739</v>
       </c>
       <c r="F40">
-        <v>-0.08703145080930962</v>
+        <v>0.0334598735108806</v>
       </c>
       <c r="G40">
-        <v>-0.04629667539845154</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.05283233995692558</v>
+      </c>
+      <c r="H40">
+        <v>0.04536920958714281</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.001662537561218534</v>
+        <v>-0.01068218610245754</v>
       </c>
       <c r="C41">
-        <v>-0.00794695765427394</v>
+        <v>0.0002276304400049631</v>
       </c>
       <c r="D41">
-        <v>-0.00747148646502808</v>
+        <v>0.009489570027891022</v>
       </c>
       <c r="E41">
-        <v>0.01616543240029074</v>
+        <v>0.002971889813607291</v>
       </c>
       <c r="F41">
-        <v>-0.01408316673421608</v>
+        <v>-0.003325711387845948</v>
       </c>
       <c r="G41">
-        <v>-0.05614276910273715</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.009976806750385567</v>
+      </c>
+      <c r="H41">
+        <v>-0.01692851784639705</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3677055230096838</v>
+        <v>-0.1849768987790971</v>
       </c>
       <c r="C42">
-        <v>-0.8884782532651949</v>
+        <v>0.1060780287935621</v>
       </c>
       <c r="D42">
-        <v>-0.1692287305554431</v>
+        <v>-0.5270833382608343</v>
       </c>
       <c r="E42">
-        <v>-0.1205949460615392</v>
+        <v>0.1249013246470412</v>
       </c>
       <c r="F42">
-        <v>0.04405586291258935</v>
+        <v>-0.7963957843196766</v>
       </c>
       <c r="G42">
-        <v>-0.02019006556852813</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.09297300664522359</v>
+      </c>
+      <c r="H42">
+        <v>0.01818311717227729</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.007508382624020167</v>
+        <v>-0.01018891538389445</v>
       </c>
       <c r="C43">
-        <v>-0.003734756172051501</v>
+        <v>0.001718208589417147</v>
       </c>
       <c r="D43">
-        <v>-0.01054896944361764</v>
+        <v>0.01309207328991102</v>
       </c>
       <c r="E43">
-        <v>0.02002828916326584</v>
+        <v>0.008048409025631758</v>
       </c>
       <c r="F43">
-        <v>-0.03451984364888847</v>
+        <v>-0.007844026442017198</v>
       </c>
       <c r="G43">
-        <v>-0.04939652068275171</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.01894424815093103</v>
+      </c>
+      <c r="H43">
+        <v>-0.009409435715145862</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01854244733078429</v>
+        <v>-0.01651197931915092</v>
       </c>
       <c r="C44">
-        <v>-0.0006605988104459648</v>
+        <v>-0.00111835072384167</v>
       </c>
       <c r="D44">
-        <v>-0.02826844135492416</v>
+        <v>-0.02186617276248702</v>
       </c>
       <c r="E44">
-        <v>0.06791828199818456</v>
+        <v>-0.0002907329074579157</v>
       </c>
       <c r="F44">
-        <v>-0.1732713098223521</v>
+        <v>0.002635347914387908</v>
       </c>
       <c r="G44">
-        <v>-0.1535716529918748</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.09106136210497706</v>
+      </c>
+      <c r="H44">
+        <v>0.01341360640552529</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01925906493903722</v>
+        <v>-0.02189933991849548</v>
       </c>
       <c r="C46">
-        <v>0.01927758163050966</v>
+        <v>0.001374205703454549</v>
       </c>
       <c r="D46">
-        <v>-0.02399205463846528</v>
+        <v>-0.008761445886470641</v>
       </c>
       <c r="E46">
-        <v>0.0681500807598289</v>
+        <v>0.001605227302306852</v>
       </c>
       <c r="F46">
-        <v>-0.06954583878746357</v>
+        <v>0.03062052327615677</v>
       </c>
       <c r="G46">
-        <v>-0.0573320133009745</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.05919152069107732</v>
+      </c>
+      <c r="H46">
+        <v>-0.01487277990763569</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09519800636547712</v>
+        <v>-0.07724485853815234</v>
       </c>
       <c r="C47">
-        <v>0.03433953911440869</v>
+        <v>-0.0318133547225302</v>
       </c>
       <c r="D47">
-        <v>-0.02634746787842411</v>
+        <v>-0.03331528918232997</v>
       </c>
       <c r="E47">
-        <v>0.03682314396305426</v>
+        <v>0.004175033440901578</v>
       </c>
       <c r="F47">
-        <v>-0.00329097964643681</v>
+        <v>0.03117340019877691</v>
       </c>
       <c r="G47">
-        <v>-0.08910230456719732</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.008390944059022274</v>
+      </c>
+      <c r="H47">
+        <v>-0.03071017238373525</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01352209351255593</v>
+        <v>-0.02174447664897199</v>
       </c>
       <c r="C48">
-        <v>0.004411769067982895</v>
+        <v>-0.006845192642832833</v>
       </c>
       <c r="D48">
-        <v>-0.0186431171689757</v>
+        <v>-0.004269340885331372</v>
       </c>
       <c r="E48">
-        <v>0.03949852119360277</v>
+        <v>0.002460798181153803</v>
       </c>
       <c r="F48">
-        <v>-0.03794969084191266</v>
+        <v>0.01057078250406488</v>
       </c>
       <c r="G48">
-        <v>-0.01967386447536826</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.02921116871210226</v>
+      </c>
+      <c r="H48">
+        <v>-0.001323121578370401</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08850729825358522</v>
+        <v>-0.07081969150716351</v>
       </c>
       <c r="C50">
-        <v>0.0174836670192741</v>
+        <v>-0.02676306496846383</v>
       </c>
       <c r="D50">
-        <v>-0.04006963764799205</v>
+        <v>-0.0440131257254431</v>
       </c>
       <c r="E50">
-        <v>0.05557650488029924</v>
+        <v>-0.0100046900071536</v>
       </c>
       <c r="F50">
-        <v>-0.02371977132874924</v>
+        <v>0.02855118088694323</v>
       </c>
       <c r="G50">
-        <v>-0.04015675999666846</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.02380754859798701</v>
+      </c>
+      <c r="H50">
+        <v>-0.02723282883314216</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02342145296577596</v>
+        <v>-0.02261828740805064</v>
       </c>
       <c r="C51">
-        <v>0.01469084635658711</v>
+        <v>-0.0007899980168051678</v>
       </c>
       <c r="D51">
-        <v>-0.02536173335290265</v>
+        <v>0.009735242902523721</v>
       </c>
       <c r="E51">
-        <v>0.01854621083078333</v>
+        <v>0.008085560334721175</v>
       </c>
       <c r="F51">
-        <v>-0.1462359435223338</v>
+        <v>-0.003759802420584224</v>
       </c>
       <c r="G51">
-        <v>-0.04942837758551203</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.0757850701787102</v>
+      </c>
+      <c r="H51">
+        <v>0.02384692889149385</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1034122066568694</v>
+        <v>-0.09581164214494357</v>
       </c>
       <c r="C53">
-        <v>0.04801468482611872</v>
+        <v>-0.03890312234301398</v>
       </c>
       <c r="D53">
-        <v>-0.04358533445745868</v>
+        <v>-0.06347108814921366</v>
       </c>
       <c r="E53">
-        <v>0.04359065916990188</v>
+        <v>0.0003474227506037334</v>
       </c>
       <c r="F53">
-        <v>0.05457364585676391</v>
+        <v>0.06293143856137079</v>
       </c>
       <c r="G53">
-        <v>-0.03443465367166552</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.0552857453078734</v>
+      </c>
+      <c r="H53">
+        <v>-0.03450832176917732</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.01495472211890755</v>
+        <v>-0.02449924204921045</v>
       </c>
       <c r="C54">
-        <v>0.03062883576670707</v>
+        <v>-0.01284364953048295</v>
       </c>
       <c r="D54">
-        <v>-0.003043171872349849</v>
+        <v>0.02049462301183029</v>
       </c>
       <c r="E54">
-        <v>0.03413821368962915</v>
+        <v>-0.003720879660481633</v>
       </c>
       <c r="F54">
-        <v>-0.06638931109151629</v>
+        <v>0.01193650433602064</v>
       </c>
       <c r="G54">
-        <v>-0.07169322895924371</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.03835795772293272</v>
+      </c>
+      <c r="H54">
+        <v>-0.0157210325818083</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09982380091115371</v>
+        <v>-0.08148411240090296</v>
       </c>
       <c r="C55">
-        <v>0.03460224845358022</v>
+        <v>-0.03407025108079133</v>
       </c>
       <c r="D55">
-        <v>-0.004500995174397871</v>
+        <v>-0.06176424268507871</v>
       </c>
       <c r="E55">
-        <v>0.05196458002925634</v>
+        <v>-0.01084132448324437</v>
       </c>
       <c r="F55">
-        <v>0.0471903982737182</v>
+        <v>0.0525548216117102</v>
       </c>
       <c r="G55">
-        <v>-0.07216560761390714</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.0335533049898058</v>
+      </c>
+      <c r="H55">
+        <v>-0.04608004354285646</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1446574355108928</v>
+        <v>-0.1311732824387575</v>
       </c>
       <c r="C56">
-        <v>0.08298627993167738</v>
+        <v>-0.05936179812046335</v>
       </c>
       <c r="D56">
-        <v>-0.02749753630530203</v>
+        <v>-0.08264688075807583</v>
       </c>
       <c r="E56">
-        <v>0.05202346596061011</v>
+        <v>-0.00449948573064813</v>
       </c>
       <c r="F56">
-        <v>0.1628217444322745</v>
+        <v>0.08989198561295036</v>
       </c>
       <c r="G56">
-        <v>-0.008274884152180705</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.0995587877185353</v>
+      </c>
+      <c r="H56">
+        <v>-0.02800581836798503</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04327608205379396</v>
+        <v>-0.04330709436667055</v>
       </c>
       <c r="C57">
-        <v>0.0113661315910822</v>
+        <v>0.008192507702735774</v>
       </c>
       <c r="D57">
-        <v>-0.03644478734141739</v>
+        <v>-0.02198828197974745</v>
       </c>
       <c r="E57">
-        <v>0.0117980271681189</v>
+        <v>0.01033840243581732</v>
       </c>
       <c r="F57">
-        <v>-0.07536674757610719</v>
+        <v>0.02341678384510471</v>
       </c>
       <c r="G57">
-        <v>-0.03635612684914131</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.06273617938644131</v>
+      </c>
+      <c r="H57">
+        <v>0.008954676295495389</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1939750323587993</v>
+        <v>-0.1479389165187856</v>
       </c>
       <c r="C58">
-        <v>0.02859028630816966</v>
+        <v>-0.04384026712680146</v>
       </c>
       <c r="D58">
-        <v>-0.1202293412721596</v>
+        <v>-0.1322839655609903</v>
       </c>
       <c r="E58">
-        <v>0.2475610519183253</v>
+        <v>0.1094168479465903</v>
       </c>
       <c r="F58">
-        <v>-0.2215101494862911</v>
+        <v>0.03014121879751579</v>
       </c>
       <c r="G58">
-        <v>0.03932719335283022</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.6657291335079529</v>
+      </c>
+      <c r="H58">
+        <v>-0.5575129210596221</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.07030356497399785</v>
+        <v>-0.1475995775698318</v>
       </c>
       <c r="C59">
-        <v>0.08221157072524569</v>
+        <v>-0.04334419554946291</v>
       </c>
       <c r="D59">
-        <v>0.02608088726616777</v>
+        <v>0.2154365711847397</v>
       </c>
       <c r="E59">
-        <v>-0.138750298815438</v>
+        <v>0.04146266874796384</v>
       </c>
       <c r="F59">
-        <v>-0.09544807356523323</v>
+        <v>-0.07289164709259528</v>
       </c>
       <c r="G59">
-        <v>0.03737350634417005</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.01739417765204579</v>
+      </c>
+      <c r="H59">
+        <v>0.01998306098624141</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1715929104880504</v>
+        <v>-0.1728568572419604</v>
       </c>
       <c r="C60">
-        <v>0.05869236801250045</v>
+        <v>-0.04072862629961525</v>
       </c>
       <c r="D60">
-        <v>-0.07530452732642767</v>
+        <v>-0.01548888022000807</v>
       </c>
       <c r="E60">
-        <v>0.04844062152867928</v>
+        <v>0.05389551586588414</v>
       </c>
       <c r="F60">
-        <v>-0.1281215242049345</v>
+        <v>0.05235175150977991</v>
       </c>
       <c r="G60">
-        <v>0.3328446729615213</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.1373967725575553</v>
+      </c>
+      <c r="H60">
+        <v>0.3738867238423041</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02044341320945538</v>
+        <v>-0.02365749417334108</v>
       </c>
       <c r="C61">
-        <v>0.007007770789236759</v>
+        <v>-0.006862334596387805</v>
       </c>
       <c r="D61">
-        <v>-0.009902994775068433</v>
+        <v>-0.03654533125643195</v>
       </c>
       <c r="E61">
-        <v>0.02693821580100972</v>
+        <v>-0.003323973911224663</v>
       </c>
       <c r="F61">
-        <v>-0.02187603139116091</v>
+        <v>0.02690106674163885</v>
       </c>
       <c r="G61">
-        <v>-0.02057061560159211</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.03344679766411175</v>
+      </c>
+      <c r="H61">
+        <v>0.03741385583894813</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01608461561624979</v>
+        <v>-0.01441332892440522</v>
       </c>
       <c r="C63">
-        <v>0.008937435301844501</v>
+        <v>0.001233031624299209</v>
       </c>
       <c r="D63">
-        <v>-0.01534862607454024</v>
+        <v>-0.007364317478199609</v>
       </c>
       <c r="E63">
-        <v>0.04012098827947813</v>
+        <v>-0.002386838038032263</v>
       </c>
       <c r="F63">
-        <v>-0.009343890670880329</v>
+        <v>0.0183048538611833</v>
       </c>
       <c r="G63">
-        <v>-0.04355133731134465</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01631098046467644</v>
+      </c>
+      <c r="H63">
+        <v>-0.0124648172971545</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03723119410416235</v>
+        <v>-0.04471126624059307</v>
       </c>
       <c r="C64">
-        <v>0.02273762171427668</v>
+        <v>-0.01223101916672398</v>
       </c>
       <c r="D64">
-        <v>0.01670102453685607</v>
+        <v>-0.03287802922104537</v>
       </c>
       <c r="E64">
-        <v>0.04104581410964037</v>
+        <v>-0.01071335221706281</v>
       </c>
       <c r="F64">
-        <v>-0.02464189950375795</v>
+        <v>0.02324794498058237</v>
       </c>
       <c r="G64">
-        <v>-0.06880581172079782</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.02268121099884954</v>
+      </c>
+      <c r="H64">
+        <v>0.02594569809058809</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.0132232530300144</v>
+        <v>-0.03618746616212475</v>
       </c>
       <c r="C65">
-        <v>-0.00333567202032761</v>
+        <v>0.002614583994711656</v>
       </c>
       <c r="D65">
-        <v>-0.01433209507344634</v>
+        <v>-0.0432021403735061</v>
       </c>
       <c r="E65">
-        <v>0.02020579809997508</v>
+        <v>-0.006143995296607195</v>
       </c>
       <c r="F65">
-        <v>-0.007859747809358943</v>
+        <v>0.03478137059766244</v>
       </c>
       <c r="G65">
-        <v>0.007516899820273502</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.006151938451186048</v>
+      </c>
+      <c r="H65">
+        <v>0.06011463766619902</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03780126018647061</v>
+        <v>-0.03009765078943389</v>
       </c>
       <c r="C66">
-        <v>0.02432998509792814</v>
+        <v>-0.006522289449344855</v>
       </c>
       <c r="D66">
-        <v>-0.02807344628891146</v>
+        <v>-0.07734188644831466</v>
       </c>
       <c r="E66">
-        <v>0.04891087971208037</v>
+        <v>0.005561329253838843</v>
       </c>
       <c r="F66">
-        <v>-0.03912353088866971</v>
+        <v>0.05805616539867463</v>
       </c>
       <c r="G66">
-        <v>-0.008470580539085785</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.04834533712264796</v>
+      </c>
+      <c r="H66">
+        <v>0.05976977608241939</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.02067697100066405</v>
+        <v>-0.04356892594461441</v>
       </c>
       <c r="C67">
-        <v>-0.0003165363951581849</v>
+        <v>-0.02096095486912771</v>
       </c>
       <c r="D67">
-        <v>0.01618479624616019</v>
+        <v>0.006781306212489256</v>
       </c>
       <c r="E67">
-        <v>-0.02155112032329065</v>
+        <v>-0.0008713154300212318</v>
       </c>
       <c r="F67">
-        <v>-0.02542820854960046</v>
+        <v>0.01146347305462548</v>
       </c>
       <c r="G67">
-        <v>0.01420943213894515</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.01895532329539071</v>
+      </c>
+      <c r="H67">
+        <v>0.03210368045242376</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.08314773904088303</v>
+        <v>-0.148187095413937</v>
       </c>
       <c r="C68">
-        <v>0.05992384987482872</v>
+        <v>-0.02144140589437415</v>
       </c>
       <c r="D68">
-        <v>0.04304249740309365</v>
+        <v>0.2006335269578279</v>
       </c>
       <c r="E68">
-        <v>-0.1703676469559662</v>
+        <v>0.03609797764773263</v>
       </c>
       <c r="F68">
-        <v>-0.07029215715897631</v>
+        <v>-0.09705518035135199</v>
       </c>
       <c r="G68">
-        <v>0.07729286918044495</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.01292980201413437</v>
+      </c>
+      <c r="H68">
+        <v>-0.04299266017928673</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.07144950357526081</v>
+        <v>-0.06245777786946222</v>
       </c>
       <c r="C69">
-        <v>0.02933843982014272</v>
+        <v>-0.02998235350115973</v>
       </c>
       <c r="D69">
-        <v>-0.02701263005325849</v>
+        <v>-0.03139331599744202</v>
       </c>
       <c r="E69">
-        <v>0.01043129946124393</v>
+        <v>0.004790737195910322</v>
       </c>
       <c r="F69">
-        <v>-0.01218422667667424</v>
+        <v>0.02885169746026551</v>
       </c>
       <c r="G69">
-        <v>-0.07809059819672021</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.0003905869023065072</v>
+      </c>
+      <c r="H69">
+        <v>-0.009479336414293642</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1007086259916059</v>
+        <v>-0.1423284688175653</v>
       </c>
       <c r="C71">
-        <v>0.06329472900591103</v>
+        <v>-0.02967334147683834</v>
       </c>
       <c r="D71">
-        <v>0.02423884887442433</v>
+        <v>0.1869411374717547</v>
       </c>
       <c r="E71">
-        <v>-0.2129599073022053</v>
+        <v>0.03610465340292382</v>
       </c>
       <c r="F71">
-        <v>-0.09059193080742541</v>
+        <v>-0.1024468523961983</v>
       </c>
       <c r="G71">
-        <v>0.04801566454904915</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01150446131294793</v>
+      </c>
+      <c r="H71">
+        <v>-0.02575014763156405</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1087467457680344</v>
+        <v>-0.09052473773039103</v>
       </c>
       <c r="C72">
-        <v>0.09519290916027782</v>
+        <v>-0.04434170201245469</v>
       </c>
       <c r="D72">
-        <v>-0.02431388823682431</v>
+        <v>-0.06582036175520894</v>
       </c>
       <c r="E72">
-        <v>0.08078667530336649</v>
+        <v>0.006431946969342823</v>
       </c>
       <c r="F72">
-        <v>-0.08729239511118729</v>
+        <v>0.1039825317681656</v>
       </c>
       <c r="G72">
-        <v>0.1091230158535623</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.1031507038597941</v>
+      </c>
+      <c r="H72">
+        <v>0.1485890696461691</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2489313149290068</v>
+        <v>-0.2413088188985002</v>
       </c>
       <c r="C73">
-        <v>0.07290108447534063</v>
+        <v>-0.05267086068814246</v>
       </c>
       <c r="D73">
-        <v>-0.06655904219969283</v>
+        <v>-0.06072615376670599</v>
       </c>
       <c r="E73">
-        <v>0.01391511477169525</v>
+        <v>0.07731422932899611</v>
       </c>
       <c r="F73">
-        <v>-0.1995093876464362</v>
+        <v>0.06536624077357771</v>
       </c>
       <c r="G73">
-        <v>0.472146898727848</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1839397043246919</v>
+      </c>
+      <c r="H73">
+        <v>0.5060555065628507</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1271586359781449</v>
+        <v>-0.1194738710041869</v>
       </c>
       <c r="C74">
-        <v>0.04726825259577248</v>
+        <v>-0.05363516676079383</v>
       </c>
       <c r="D74">
-        <v>-0.03667500203675494</v>
+        <v>-0.08283056407825647</v>
       </c>
       <c r="E74">
-        <v>0.02190688656051624</v>
+        <v>0.004761587970709638</v>
       </c>
       <c r="F74">
-        <v>0.09534870515810742</v>
+        <v>0.07510698760600006</v>
       </c>
       <c r="G74">
-        <v>0.02030087926376551</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.07418518654038089</v>
+      </c>
+      <c r="H74">
+        <v>-0.007531786684464274</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2153952285391362</v>
+        <v>-0.2307443090645446</v>
       </c>
       <c r="C75">
-        <v>0.1248355421947408</v>
+        <v>-0.1058210144164222</v>
       </c>
       <c r="D75">
-        <v>-0.06867701176598143</v>
+        <v>-0.1312169448979683</v>
       </c>
       <c r="E75">
-        <v>0.0697912257283245</v>
+        <v>0.01776330248378685</v>
       </c>
       <c r="F75">
-        <v>0.1685986327303279</v>
+        <v>0.1513661476236551</v>
       </c>
       <c r="G75">
-        <v>-0.05526481343414671</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.1591436346925857</v>
+      </c>
+      <c r="H75">
+        <v>-0.0908359756050698</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2695442963279919</v>
+        <v>-0.210218308749825</v>
       </c>
       <c r="C76">
-        <v>0.1309391105352314</v>
+        <v>-0.1004966144080032</v>
       </c>
       <c r="D76">
-        <v>-0.009404482174422532</v>
+        <v>-0.1199888664094453</v>
       </c>
       <c r="E76">
-        <v>0.03766690363211297</v>
+        <v>-0.02304886751763973</v>
       </c>
       <c r="F76">
-        <v>0.2032424292119706</v>
+        <v>0.145230537033566</v>
       </c>
       <c r="G76">
-        <v>-0.06424494721496926</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.1749494466474571</v>
+      </c>
+      <c r="H76">
+        <v>-0.09237520635228505</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1419156547815131</v>
+        <v>-0.07534150765468922</v>
       </c>
       <c r="C77">
-        <v>-0.02239275706907794</v>
+        <v>-0.01028951669878896</v>
       </c>
       <c r="D77">
-        <v>-0.06841090220365786</v>
+        <v>-0.07265777719828968</v>
       </c>
       <c r="E77">
-        <v>0.1071272096112792</v>
+        <v>0.01132747140756088</v>
       </c>
       <c r="F77">
-        <v>-0.2279287876196335</v>
+        <v>-0.003467451673364332</v>
       </c>
       <c r="G77">
-        <v>-0.128090793984823</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.1316878375140395</v>
+      </c>
+      <c r="H77">
+        <v>-0.0671941187859333</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.05410335329219254</v>
+        <v>-0.03823866830067969</v>
       </c>
       <c r="C78">
-        <v>0.01657426979704823</v>
+        <v>-0.01100248808638682</v>
       </c>
       <c r="D78">
-        <v>-0.03896074952774355</v>
+        <v>-0.0566654082993902</v>
       </c>
       <c r="E78">
-        <v>0.1058938557011099</v>
+        <v>-0.004191638287759811</v>
       </c>
       <c r="F78">
-        <v>-0.03629247234137912</v>
+        <v>0.04678998248200267</v>
       </c>
       <c r="G78">
-        <v>-0.06176100586963186</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.05983386484195987</v>
+      </c>
+      <c r="H78">
+        <v>0.02567128750858693</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.2133126752896558</v>
+        <v>-0.16459000605013</v>
       </c>
       <c r="C80">
-        <v>-0.1316086686895582</v>
+        <v>-0.05108520278353956</v>
       </c>
       <c r="D80">
-        <v>0.921165792800251</v>
+        <v>-0.0003968424661697664</v>
       </c>
       <c r="E80">
-        <v>0.2610661764954998</v>
+        <v>-0.9622451215092487</v>
       </c>
       <c r="F80">
-        <v>-0.04049996122471985</v>
+        <v>-0.1376722255268909</v>
       </c>
       <c r="G80">
-        <v>0.0302039235965894</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.09438599025355959</v>
+      </c>
+      <c r="H80">
+        <v>0.007854163914974756</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1566072901067245</v>
+        <v>-0.1528280303324927</v>
       </c>
       <c r="C81">
-        <v>0.09191663562340757</v>
+        <v>-0.06905060652527077</v>
       </c>
       <c r="D81">
-        <v>-0.0205393831379163</v>
+        <v>-0.0812400282535794</v>
       </c>
       <c r="E81">
-        <v>0.049979309809622</v>
+        <v>-0.003985173253546291</v>
       </c>
       <c r="F81">
-        <v>0.1738224238772688</v>
+        <v>0.09661680783396799</v>
       </c>
       <c r="G81">
-        <v>-0.02433839916544459</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.1058031230430902</v>
+      </c>
+      <c r="H81">
+        <v>-0.0669845515119224</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.05510793300707879</v>
+        <v>-0.03851830437722978</v>
       </c>
       <c r="C83">
-        <v>-0.0119176617800513</v>
+        <v>-0.007616427645331663</v>
       </c>
       <c r="D83">
-        <v>-0.03851026000937478</v>
+        <v>-0.02259629208058711</v>
       </c>
       <c r="E83">
-        <v>0.02984154328830594</v>
+        <v>0.0116623276369266</v>
       </c>
       <c r="F83">
-        <v>-0.06025112574623863</v>
+        <v>0.008902164592996658</v>
       </c>
       <c r="G83">
-        <v>-0.04924565848535244</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.05713210450772809</v>
+      </c>
+      <c r="H83">
+        <v>0.0135251529120037</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2347722779292004</v>
+        <v>-0.2156356217182497</v>
       </c>
       <c r="C85">
-        <v>0.1157054870605186</v>
+        <v>-0.0872045480378698</v>
       </c>
       <c r="D85">
-        <v>-0.04409369144239154</v>
+        <v>-0.1367599337280247</v>
       </c>
       <c r="E85">
-        <v>0.04323028066343914</v>
+        <v>0.009899058099548809</v>
       </c>
       <c r="F85">
-        <v>0.1912122435586069</v>
+        <v>0.1358379732334541</v>
       </c>
       <c r="G85">
-        <v>-0.07951664732100723</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1697533241055972</v>
+      </c>
+      <c r="H85">
+        <v>-0.05851575635516654</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.0006015672413577539</v>
+        <v>-0.01657041576373572</v>
       </c>
       <c r="C86">
-        <v>-0.008133639356311563</v>
+        <v>0.00101683908109575</v>
       </c>
       <c r="D86">
-        <v>-0.002833612514445555</v>
+        <v>-0.004506348195954034</v>
       </c>
       <c r="E86">
-        <v>0.04460401288305502</v>
+        <v>0.01025282007905202</v>
       </c>
       <c r="F86">
-        <v>-0.06785014577650704</v>
+        <v>-0.003655305107294687</v>
       </c>
       <c r="G86">
-        <v>-0.01737842417351419</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.08956570910180837</v>
+      </c>
+      <c r="H86">
+        <v>0.03697715401447362</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.0318657218299014</v>
+        <v>-0.02907532380040478</v>
       </c>
       <c r="C87">
-        <v>0.00859265836263249</v>
+        <v>-0.003571964780255846</v>
       </c>
       <c r="D87">
-        <v>-0.01400553157940383</v>
+        <v>-0.02715144086275614</v>
       </c>
       <c r="E87">
-        <v>0.03531519242680083</v>
+        <v>0.0007842730269149759</v>
       </c>
       <c r="F87">
-        <v>-0.08214615810270084</v>
+        <v>0.02320753663046851</v>
       </c>
       <c r="G87">
-        <v>0.000589176867737378</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.0961563506219609</v>
+      </c>
+      <c r="H87">
+        <v>0.02586833576500798</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.009335701103052419</v>
+        <v>-0.03578758049255958</v>
       </c>
       <c r="C88">
-        <v>0.01469538629525495</v>
+        <v>0.01048979491431777</v>
       </c>
       <c r="D88">
-        <v>0.02390236998916013</v>
+        <v>0.0003521090216434564</v>
       </c>
       <c r="E88">
-        <v>-0.006307093132887072</v>
+        <v>-0.008905554423744268</v>
       </c>
       <c r="F88">
-        <v>-0.03587381911478583</v>
+        <v>0.01371819825606156</v>
       </c>
       <c r="G88">
-        <v>-0.06491890251620418</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.004112361749473287</v>
+      </c>
+      <c r="H88">
+        <v>0.01020946430370276</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1209990457742783</v>
+        <v>-0.2327315924475432</v>
       </c>
       <c r="C89">
-        <v>0.09173273582951733</v>
+        <v>-0.04542213709349799</v>
       </c>
       <c r="D89">
-        <v>0.03398494159327465</v>
+        <v>0.3305769080001712</v>
       </c>
       <c r="E89">
-        <v>-0.291746484295648</v>
+        <v>0.08048012244838107</v>
       </c>
       <c r="F89">
-        <v>-0.1515023969389372</v>
+        <v>-0.1398488281500172</v>
       </c>
       <c r="G89">
-        <v>0.02231559017115002</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.001240548819412952</v>
+      </c>
+      <c r="H89">
+        <v>-0.03120499714185634</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1091110983597091</v>
+        <v>-0.1838017018937628</v>
       </c>
       <c r="C90">
-        <v>0.08802868781929614</v>
+        <v>-0.03639092183453099</v>
       </c>
       <c r="D90">
-        <v>0.08041034218897646</v>
+        <v>0.2843860936772968</v>
       </c>
       <c r="E90">
-        <v>-0.2882859478168128</v>
+        <v>0.05272724983674037</v>
       </c>
       <c r="F90">
-        <v>-0.1111469481037617</v>
+        <v>-0.1364942342942935</v>
       </c>
       <c r="G90">
-        <v>0.03671405388914552</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.04014259239431548</v>
+      </c>
+      <c r="H90">
+        <v>-0.04662602034910145</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2883463866926561</v>
+        <v>-0.2385513003139901</v>
       </c>
       <c r="C91">
-        <v>0.102405970462671</v>
+        <v>-0.1069719198349817</v>
       </c>
       <c r="D91">
-        <v>-0.05747785946691973</v>
+        <v>-0.1301491137936841</v>
       </c>
       <c r="E91">
-        <v>0.02702156394600889</v>
+        <v>0.01053995713814453</v>
       </c>
       <c r="F91">
-        <v>0.2605746003668581</v>
+        <v>0.1373871343754968</v>
       </c>
       <c r="G91">
-        <v>-0.03871684886520649</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.2048196057331793</v>
+      </c>
+      <c r="H91">
+        <v>-0.121034682734762</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1879199339956785</v>
+        <v>-0.2383299714656334</v>
       </c>
       <c r="C92">
-        <v>0.08984107450123202</v>
+        <v>-0.09934221471893351</v>
       </c>
       <c r="D92">
-        <v>0.1151566008942343</v>
+        <v>0.2315864716764935</v>
       </c>
       <c r="E92">
-        <v>-0.4574421315672447</v>
+        <v>0.03402813101896111</v>
       </c>
       <c r="F92">
-        <v>-0.06428798216827715</v>
+        <v>-0.1154622741048452</v>
       </c>
       <c r="G92">
-        <v>-0.5040506407375506</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.05015594220794716</v>
+      </c>
+      <c r="H92">
+        <v>-0.1353471673700878</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1186763122185539</v>
+        <v>-0.2066707871324528</v>
       </c>
       <c r="C93">
-        <v>0.06817037963329897</v>
+        <v>-0.04683870556058842</v>
       </c>
       <c r="D93">
-        <v>0.09858379478954724</v>
+        <v>0.3028381610963442</v>
       </c>
       <c r="E93">
-        <v>-0.4003107784945313</v>
+        <v>0.06661554375458129</v>
       </c>
       <c r="F93">
-        <v>-0.07825477485984995</v>
+        <v>-0.1744100104980418</v>
       </c>
       <c r="G93">
-        <v>0.103657094093565</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.05211657191313648</v>
+      </c>
+      <c r="H93">
+        <v>0.01302262672368374</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2646731690437071</v>
+        <v>-0.2552150624425222</v>
       </c>
       <c r="C94">
-        <v>0.1434166573388808</v>
+        <v>-0.09509342171675489</v>
       </c>
       <c r="D94">
-        <v>-0.02890227438798639</v>
+        <v>-0.1152218832448538</v>
       </c>
       <c r="E94">
-        <v>0.03375235377339302</v>
+        <v>0.02822076146416478</v>
       </c>
       <c r="F94">
-        <v>0.3045677955655577</v>
+        <v>0.1626381823136484</v>
       </c>
       <c r="G94">
-        <v>0.02544899023957166</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.2158219991622736</v>
+      </c>
+      <c r="H94">
+        <v>-0.134487470182405</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.07638837753230994</v>
+        <v>-0.06681010192190544</v>
       </c>
       <c r="C95">
-        <v>0.006985451246872294</v>
+        <v>-0.03341575896375398</v>
       </c>
       <c r="D95">
-        <v>-0.07124474874115541</v>
+        <v>-0.08394845430985826</v>
       </c>
       <c r="E95">
-        <v>0.08454131345927809</v>
+        <v>0.0698211124841856</v>
       </c>
       <c r="F95">
-        <v>-0.0333797610578796</v>
+        <v>0.02515691926806977</v>
       </c>
       <c r="G95">
-        <v>-0.2324198313184507</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.06029288617141781</v>
+      </c>
+      <c r="H95">
+        <v>0.001743347955695124</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1904116104650785</v>
+        <v>-0.1809985316074336</v>
       </c>
       <c r="C98">
-        <v>0.04236664764828315</v>
+        <v>-0.07199866178191611</v>
       </c>
       <c r="D98">
-        <v>-0.05188359539857961</v>
+        <v>-0.0383917802331474</v>
       </c>
       <c r="E98">
-        <v>-0.02605579753229758</v>
+        <v>0.05227849639788315</v>
       </c>
       <c r="F98">
-        <v>-0.07334228950417301</v>
+        <v>0.02634764714382689</v>
       </c>
       <c r="G98">
-        <v>0.3281981907985497</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.1566330654444052</v>
+      </c>
+      <c r="H98">
+        <v>0.3645543740510366</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002695457184365782</v>
+        <v>-0.01486358055494473</v>
       </c>
       <c r="C101">
-        <v>0.02284518321028216</v>
+        <v>-0.0002282573513291582</v>
       </c>
       <c r="D101">
-        <v>-0.01610427171268888</v>
+        <v>-0.004741209469953571</v>
       </c>
       <c r="E101">
-        <v>0.1259587067183049</v>
+        <v>-0.005489690525294924</v>
       </c>
       <c r="F101">
-        <v>-0.1405255868020366</v>
+        <v>0.03084248732375987</v>
       </c>
       <c r="G101">
-        <v>-0.128856372460651</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1021440426504282</v>
+      </c>
+      <c r="H101">
+        <v>-0.07399449120834246</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.09555119158952342</v>
+        <v>-0.1038431605230404</v>
       </c>
       <c r="C102">
-        <v>0.03173832130586544</v>
+        <v>-0.0343805485981411</v>
       </c>
       <c r="D102">
-        <v>-0.01293239651483798</v>
+        <v>-0.0698209421136856</v>
       </c>
       <c r="E102">
-        <v>0.05606751775071725</v>
+        <v>-0.00335783569959424</v>
       </c>
       <c r="F102">
-        <v>0.1357525094412459</v>
+        <v>0.06832175869233142</v>
       </c>
       <c r="G102">
-        <v>-0.07361639930204072</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.09610164302872411</v>
+      </c>
+      <c r="H102">
+        <v>-0.05311155079615913</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.02538231229553975</v>
+        <v>-0.02084305271157393</v>
       </c>
       <c r="C103">
-        <v>0.01308833174329281</v>
+        <v>-0.00810628474075145</v>
       </c>
       <c r="D103">
-        <v>-0.01179504819905273</v>
+        <v>-0.01397707942019297</v>
       </c>
       <c r="E103">
-        <v>0.004535624598198313</v>
+        <v>-0.006475431257930759</v>
       </c>
       <c r="F103">
-        <v>0.01070893407079944</v>
+        <v>0.01773317328357579</v>
       </c>
       <c r="G103">
-        <v>-0.0237328096140362</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.006164653129897757</v>
+      </c>
+      <c r="H103">
+        <v>-0.01051414281516718</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.2865139031914548</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.937780193173413</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.04315978869450942</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.02662154640139835</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1577275678129575</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.03791728126247959</v>
+      </c>
+      <c r="H104">
+        <v>-0.03056206425110661</v>
       </c>
     </row>
   </sheetData>
